--- a/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019830_Event_12.xlsx
+++ b/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019830_Event_12.xlsx
@@ -7,10 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB hindlimb" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB ankle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC hindlimb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC ankle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_forelimb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_forelimb" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_wrist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_wrist" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_hindlimb" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_hindlimb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_ankle" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_ankle" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +515,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>stride_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_min_hip_height_height</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>stride_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_A</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_min_hip_height_height</t>
         </is>
       </c>
     </row>
@@ -448,7 +579,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89.8105488522437</v>
+        <v>78.94717730442454</v>
+      </c>
+      <c r="C2" t="n">
+        <v>78.94717730442454</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.58242057708361</v>
+      </c>
+      <c r="E2" t="n">
+        <v>78.88948612483246</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02273153214827948</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01655850430892198</v>
+      </c>
+      <c r="H2" t="n">
+        <v>89.77377735112708</v>
+      </c>
+      <c r="I2" t="n">
+        <v>89.77377735112708</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-38.47776403721195</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.10620694960128</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.03557238050551026</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.02223340310330353</v>
       </c>
     </row>
     <row r="3">
@@ -456,709 +620,1725 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>87.62679749963615</v>
-      </c>
+        <v>55.86712368758506</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>89.8105488522437</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>87.51451638699125</v>
-      </c>
+        <v>58.62190402509585</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>87.62679749963615</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>86.7185147856884</v>
-      </c>
+        <v>56.04893797039912</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>87.51451638699125</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>86.65792244725947</v>
-      </c>
+        <v>56.60088541247539</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>86.7185147856884</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>86.64016145327702</v>
-      </c>
+        <v>78.88948612483246</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>86.65792244725947</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86.72591705761738</v>
-      </c>
+        <v>80.11664879171593</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>86.64016145327702</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>87.48324419486509</v>
-      </c>
+        <v>75.42177311780348</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>86.72591705761738</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>87.65346025906997</v>
-      </c>
+        <v>75.72947136850233</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>87.48324419486509</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88.05989334846069</v>
-      </c>
+        <v>85.57725088577328</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>87.65346025906997</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88.16276887727403</v>
-      </c>
+        <v>85.84547377029789</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>88.05989334846069</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>89.76343699041834</v>
-      </c>
+        <v>89.13408866445805</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>88.16276887727403</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>89.71260993248819</v>
-      </c>
+        <v>89.41807533401641</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>89.76343699041834</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>87.86697926949311</v>
-      </c>
+        <v>84.58971912032293</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>89.71260993248819</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>87.86439461382051</v>
-      </c>
+        <v>84.54266185370123</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>87.86697926949311</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83.78192938506051</v>
-      </c>
+        <v>82.31905390700257</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>87.86439461382051</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83.75525854285208</v>
-      </c>
+        <v>82.41827676558681</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>83.78192938506051</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>79.88642540574386</v>
-      </c>
+        <v>78.20933089478892</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>83.75525854285208</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>79.78066260489052</v>
-      </c>
+        <v>78.4288689951984</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>79.88642540574386</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>75.03306087017567</v>
-      </c>
+        <v>74.73345095936669</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>79.78066260489052</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>74.97383288501625</v>
-      </c>
+        <v>74.58242057708361</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>75.03306087017567</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>69.93446705804772</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>74.97383288501625</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>69.79936039887561</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>69.93446705804772</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>64.58373616677582</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>69.79936039887561</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>64.45559755913916</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>64.58373616677582</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>58.62182806402645</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>64.45559755913916</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>58.51865987127594</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>58.62182806402645</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>53.16572577228606</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>58.51865987127594</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>53.05192017810623</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>53.16572577228606</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>48.10015171299928</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>53.05192017810623</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>47.93361768786956</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>48.10015171299928</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>43.12721676090901</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>47.93361768786956</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>43.07058951878711</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>43.12721676090901</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>38.518087485731</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>43.07058951878711</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>38.57272096651744</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>38.518087485731</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>33.73407813819856</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>38.57272096651744</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>33.61655403395277</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>33.73407813819856</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>27.59339681734258</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>33.61655403395277</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>27.55292570075649</v>
-      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>27.59339681734258</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>21.88150660962898</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>27.55292570075649</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>21.86479116153674</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>21.88150660962898</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>14.12430667152481</v>
-      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>21.86479116153674</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>14.14819543736574</v>
-      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>14.12430667152481</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>8.10620694960128</v>
-      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>14.14819543736574</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>8.072420518758591</v>
-      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>8.10620694960128</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>1.852957577409919</v>
-      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>8.072420518758591</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>2.02201663741113</v>
-      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>1.852957577409919</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>-2.747813399872792</v>
-      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>2.02201663741113</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>-2.720614005963318</v>
-      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>-2.747813399872792</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>-9.609264191996401</v>
-      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>-2.720614005963318</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>-9.577067698691691</v>
-      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>-9.609264191996401</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>-14.84012679425605</v>
-      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>-9.577067698691691</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>-14.71143624361422</v>
-      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>-14.84012679425605</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>-20.30575738518204</v>
-      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>-14.71143624361422</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>-20.40994051598348</v>
-      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>-20.30575738518204</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>-26.11365097371097</v>
-      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>-20.40994051598348</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>-26.11269591350248</v>
-      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>-26.11365097371097</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>-31.15116915833678</v>
-      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>-26.11269591350248</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>-30.99741254578433</v>
-      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>-31.15116915833678</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>-33.44728657652752</v>
-      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>-30.99741254578433</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>-33.6654261350763</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>-33.44728657652752</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>-35.80541649159707</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>-33.6654261350763</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>-36.32989176639575</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>-35.80541649159707</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>-38.83021351947358</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>-36.32989176639575</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>-38.76867557389423</v>
-      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>-38.83021351947358</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>-41.22659262049773</v>
-      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>-38.76867557389423</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>-41.24133362281399</v>
-      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>-41.22659262049773</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>-43.67277729782838</v>
-      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>-41.24133362281399</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>-43.70867465346216</v>
-      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>-43.67277729782838</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>-44.58472814904671</v>
-      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>-43.70867465346216</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>-44.66657125752133</v>
-      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>-44.58472814904671</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>-44.3027296946963</v>
-      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>-44.66657125752133</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>-44.3102032117702</v>
-      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>-44.3027296946963</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>-45.19017541720564</v>
-      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>-44.3102032117702</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>-45.19524118880615</v>
-      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>-45.19017541720564</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>-46.20663741470341</v>
-      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>-45.19524118880615</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>-46.21784559295356</v>
-      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>-46.20663741470341</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>-46.28792100920415</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>-46.21784559295356</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>-46.39706046748723</v>
-      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>-46.28792100920415</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>-46.81251677829129</v>
-      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>-46.39706046748723</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>-46.93690247045438</v>
-      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>-46.81251677829129</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>-45.20589412637088</v>
-      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>-46.93690247045438</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>-45.1509137889643</v>
-      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>-45.20589412637088</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>-43.44319854219323</v>
-      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>-45.1509137889643</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>-43.47014452860194</v>
-      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>-43.44319854219323</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>-42.36893420801394</v>
-      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>-43.47014452860194</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>-42.31593718753555</v>
-      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>-42.36893420801394</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>-42.31593718753555</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="n">
         <v>-38.47776403721195</v>
       </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1169,6 +2349,11 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>stride_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>stride_2</t>
         </is>
       </c>
@@ -1178,7 +2363,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-55.98786750799241</v>
+        <v>78.94717730442454</v>
+      </c>
+      <c r="C2" t="n">
+        <v>89.77377735112708</v>
       </c>
     </row>
     <row r="3">
@@ -1186,7 +2374,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-55.77590684050573</v>
+        <v>55.86712368758506</v>
+      </c>
+      <c r="C3" t="n">
+        <v>89.8105488522437</v>
       </c>
     </row>
     <row r="4">
@@ -1194,7 +2385,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-55.73335614490745</v>
+        <v>58.62190402509585</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87.51451638699125</v>
       </c>
     </row>
     <row r="5">
@@ -1202,7 +2396,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-55.43145636921313</v>
+        <v>56.04893797039912</v>
+      </c>
+      <c r="C5" t="n">
+        <v>86.7185147856884</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +2407,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-55.43718328374239</v>
+        <v>56.60088541247539</v>
+      </c>
+      <c r="C6" t="n">
+        <v>86.64016145327702</v>
       </c>
     </row>
     <row r="7">
@@ -1218,7 +2418,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-54.54744748978932</v>
+        <v>78.88948612483246</v>
+      </c>
+      <c r="C7" t="n">
+        <v>86.72591705761738</v>
       </c>
     </row>
     <row r="8">
@@ -1226,7 +2429,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-54.50270381699778</v>
+        <v>80.11664879171593</v>
+      </c>
+      <c r="C8" t="n">
+        <v>87.48324419486509</v>
       </c>
     </row>
     <row r="9">
@@ -1234,7 +2440,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-53.5683787129645</v>
+        <v>75.42177311780348</v>
+      </c>
+      <c r="C9" t="n">
+        <v>88.05989334846069</v>
       </c>
     </row>
     <row r="10">
@@ -1242,7 +2451,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-53.55507385828216</v>
+        <v>75.72947136850233</v>
+      </c>
+      <c r="C10" t="n">
+        <v>88.16276887727403</v>
       </c>
     </row>
     <row r="11">
@@ -1250,7 +2462,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-52.62945067667353</v>
+        <v>85.57725088577328</v>
+      </c>
+      <c r="C11" t="n">
+        <v>89.76343699041834</v>
       </c>
     </row>
     <row r="12">
@@ -1258,7 +2473,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-52.62109463412564</v>
+        <v>85.84547377029789</v>
+      </c>
+      <c r="C12" t="n">
+        <v>87.86697926949311</v>
       </c>
     </row>
     <row r="13">
@@ -1266,7 +2484,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-51.09415204202878</v>
+        <v>89.13408866445805</v>
+      </c>
+      <c r="C13" t="n">
+        <v>87.86439461382051</v>
       </c>
     </row>
     <row r="14">
@@ -1274,7 +2495,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-51.05645430490717</v>
+        <v>89.41807533401641</v>
+      </c>
+      <c r="C14" t="n">
+        <v>83.75525854285208</v>
       </c>
     </row>
     <row r="15">
@@ -1282,7 +2506,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-48.65048687429478</v>
+        <v>84.58971912032293</v>
+      </c>
+      <c r="C15" t="n">
+        <v>79.88642540574386</v>
       </c>
     </row>
     <row r="16">
@@ -1290,7 +2517,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-48.64264365750489</v>
+        <v>84.54266185370123</v>
+      </c>
+      <c r="C16" t="n">
+        <v>79.78066260489052</v>
       </c>
     </row>
     <row r="17">
@@ -1298,7 +2528,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-45.70603426419515</v>
+        <v>82.31905390700257</v>
+      </c>
+      <c r="C17" t="n">
+        <v>74.97383288501625</v>
       </c>
     </row>
     <row r="18">
@@ -1306,7 +2539,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-45.74483430835046</v>
+        <v>82.41827676558681</v>
+      </c>
+      <c r="C18" t="n">
+        <v>69.93446705804772</v>
       </c>
     </row>
     <row r="19">
@@ -1314,7 +2550,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-42.26440676853931</v>
+        <v>78.20933089478892</v>
+      </c>
+      <c r="C19" t="n">
+        <v>69.79936039887561</v>
       </c>
     </row>
     <row r="20">
@@ -1322,7 +2561,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-42.21665712471682</v>
+        <v>78.4288689951984</v>
+      </c>
+      <c r="C20" t="n">
+        <v>64.45559755913916</v>
       </c>
     </row>
     <row r="21">
@@ -1330,7 +2572,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-38.59750868631277</v>
+        <v>74.73345095936669</v>
+      </c>
+      <c r="C21" t="n">
+        <v>58.62182806402645</v>
       </c>
     </row>
     <row r="22">
@@ -1338,7 +2583,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-38.56858965485416</v>
+        <v>74.58242057708361</v>
+      </c>
+      <c r="C22" t="n">
+        <v>53.16572577228606</v>
       </c>
     </row>
     <row r="23">
@@ -1346,7 +2594,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-35.01858757712635</v>
+        <v>75.67683575908417</v>
+      </c>
+      <c r="C23" t="n">
+        <v>53.05192017810623</v>
       </c>
     </row>
     <row r="24">
@@ -1354,7 +2605,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-34.87870297809698</v>
+        <v>75.63944431131577</v>
+      </c>
+      <c r="C24" t="n">
+        <v>48.10015171299928</v>
       </c>
     </row>
     <row r="25">
@@ -1362,7 +2616,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-31.59661901665523</v>
+        <v>78.90302146418209</v>
+      </c>
+      <c r="C25" t="n">
+        <v>43.12721676090901</v>
       </c>
     </row>
     <row r="26">
@@ -1370,7 +2627,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-31.56204193012739</v>
+        <v>79.03120192863446</v>
+      </c>
+      <c r="C26" t="n">
+        <v>43.07058951878711</v>
       </c>
     </row>
     <row r="27">
@@ -1378,7 +2638,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-27.97703049436551</v>
+        <v>79.03120192863446</v>
+      </c>
+      <c r="C27" t="n">
+        <v>38.518087485731</v>
       </c>
     </row>
     <row r="28">
@@ -1386,7 +2649,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-27.89996108527</v>
+        <v>83.02131881486038</v>
+      </c>
+      <c r="C28" t="n">
+        <v>33.73407813819856</v>
       </c>
     </row>
     <row r="29">
@@ -1394,7 +2660,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-24.0679048449413</v>
+        <v>83.24812972264564</v>
+      </c>
+      <c r="C29" t="n">
+        <v>33.61655403395277</v>
       </c>
     </row>
     <row r="30">
@@ -1402,7 +2671,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-23.99604828494301</v>
+        <v>84.48957735205097</v>
+      </c>
+      <c r="C30" t="n">
+        <v>27.55292570075649</v>
       </c>
     </row>
     <row r="31">
@@ -1410,7 +2682,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-21.05620926310888</v>
+        <v>84.45503291856856</v>
+      </c>
+      <c r="C31" t="n">
+        <v>21.88150660962898</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +2693,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-20.94942336370391</v>
+        <v>85.37171206224305</v>
+      </c>
+      <c r="C32" t="n">
+        <v>21.86479116153674</v>
       </c>
     </row>
     <row r="33">
@@ -1426,7 +2704,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-17.4255327228725</v>
+        <v>85.38859297190211</v>
+      </c>
+      <c r="C33" t="n">
+        <v>14.14819543736574</v>
       </c>
     </row>
     <row r="34">
@@ -1434,7 +2715,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-17.38698538665386</v>
+        <v>85.05634887011679</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8.10620694960128</v>
       </c>
     </row>
     <row r="35">
@@ -1442,7 +2726,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-13.33630159131398</v>
+        <v>85.09665487225334</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.852957577409919</v>
       </c>
     </row>
     <row r="36">
@@ -1450,7 +2737,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-13.30814200859339</v>
+        <v>83.99037014751629</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.02201663741113</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +2748,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-9.569907463444911</v>
+        <v>84.04659580522294</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-2.747813399872792</v>
       </c>
     </row>
     <row r="38">
@@ -1466,7 +2759,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-9.50120902441534</v>
+        <v>82.60320305907385</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-9.609264191996401</v>
       </c>
     </row>
     <row r="39">
@@ -1474,7 +2770,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-5.068317430407355</v>
+        <v>82.45012000376028</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-9.577067698691691</v>
       </c>
     </row>
     <row r="40">
@@ -1482,7 +2781,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-5.048051480280074</v>
+        <v>80.6818524965269</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-14.84012679425605</v>
       </c>
     </row>
     <row r="41">
@@ -1490,7 +2792,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.3977686884311543</v>
+        <v>80.6348659121753</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-20.30575738518204</v>
       </c>
     </row>
     <row r="42">
@@ -1498,7 +2803,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.3615228755001332</v>
+        <v>79.15986833672824</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-20.40994051598348</v>
       </c>
     </row>
     <row r="43">
@@ -1506,7 +2814,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.102191318258362</v>
+        <v>78.84173658305431</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-26.11269591350248</v>
       </c>
     </row>
     <row r="44">
@@ -1514,7 +2825,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.130276782442643</v>
+        <v>76.50994729258682</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-31.15116915833678</v>
       </c>
     </row>
     <row r="45">
@@ -1522,7 +2836,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10.27407423799555</v>
+        <v>76.54039979590389</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-30.99741254578433</v>
       </c>
     </row>
     <row r="46">
@@ -1530,7 +2847,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10.33081048390006</v>
+        <v>74.23360337065743</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-33.6654261350763</v>
       </c>
     </row>
     <row r="47">
@@ -1538,7 +2858,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.06854691698357</v>
+        <v>74.14429583966442</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-35.80541649159707</v>
       </c>
     </row>
     <row r="48">
@@ -1546,7 +2869,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.20962137215056</v>
+        <v>69.77211780207172</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-36.32989176639575</v>
       </c>
     </row>
     <row r="49">
@@ -1554,7 +2880,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19.13759418159532</v>
+        <v>69.69519586017947</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-38.76867557389423</v>
       </c>
     </row>
     <row r="50">
@@ -1562,7 +2891,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19.16620364384654</v>
+        <v>64.04547685779781</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-41.22659262049773</v>
       </c>
     </row>
     <row r="51">
@@ -1570,7 +2902,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23.8211869934552</v>
+        <v>63.98416179620977</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-43.67277729782838</v>
       </c>
     </row>
     <row r="52">
@@ -1578,7 +2913,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23.84876418372964</v>
+        <v>57.86015086413962</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-43.70867465346216</v>
       </c>
     </row>
     <row r="53">
@@ -1586,7 +2924,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.61796890510384</v>
+        <v>57.53911510437271</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-44.58472814904671</v>
       </c>
     </row>
     <row r="54">
@@ -1594,7 +2935,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>27.63957111981048</v>
+        <v>50.87305349679164</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-44.3027296946963</v>
       </c>
     </row>
     <row r="55">
@@ -1602,7 +2946,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>31.59772775899151</v>
+        <v>50.42455727429468</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-44.3102032117702</v>
       </c>
     </row>
     <row r="56">
@@ -1610,7 +2957,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31.65976090605512</v>
+        <v>42.78666956156073</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-45.19524118880615</v>
       </c>
     </row>
     <row r="57">
@@ -1618,7 +2968,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>35.21450236878244</v>
+        <v>42.60995326546482</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-46.20663741470341</v>
       </c>
     </row>
     <row r="58">
@@ -1626,7 +2979,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>35.21808478401853</v>
+        <v>35.23101008744249</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-46.21784559295356</v>
       </c>
     </row>
     <row r="59">
@@ -1634,7 +2990,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>38.5695155141591</v>
+        <v>35.18247270064901</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-46.39706046748723</v>
       </c>
     </row>
     <row r="60">
@@ -1642,7 +3001,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>38.57159324318651</v>
+        <v>26.44231869024968</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-46.81251677829129</v>
       </c>
     </row>
     <row r="61">
@@ -1650,7 +3012,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40.74556348240453</v>
+        <v>26.07664514157841</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-46.93690247045438</v>
       </c>
     </row>
     <row r="62">
@@ -1658,7 +3023,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>40.84709638145874</v>
+        <v>20.08865186766887</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-45.1509137889643</v>
       </c>
     </row>
     <row r="63">
@@ -1666,7 +3034,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>43.19904782742664</v>
+        <v>19.97647717968919</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-43.44319854219323</v>
       </c>
     </row>
     <row r="64">
@@ -1674,7 +3045,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>43.42632716701343</v>
+        <v>13.88371400303414</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-42.36893420801394</v>
       </c>
     </row>
     <row r="65">
@@ -1682,7 +3056,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>46.17602854222906</v>
+        <v>13.89976082010008</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-42.31593718753555</v>
       </c>
     </row>
     <row r="66">
@@ -1690,7 +3067,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>46.15872622915466</v>
+        <v>5.001008623291454</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-38.47776403721195</v>
       </c>
     </row>
     <row r="67">
@@ -1698,7 +3078,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>48.81729715941928</v>
+        <v>4.943940896341585</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-32.79485648494229</v>
       </c>
     </row>
     <row r="68">
@@ -1706,7 +3089,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>48.82527303788803</v>
+        <v>-0.9966093717283361</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-32.7245372518595</v>
       </c>
     </row>
     <row r="69">
@@ -1714,7 +3100,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>50.72483519702093</v>
+        <v>-0.9694609328076621</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-25.37279385119181</v>
       </c>
     </row>
     <row r="70">
@@ -1722,7 +3111,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>50.74719953270971</v>
+        <v>-7.190549131797943</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-13.14326028977431</v>
       </c>
     </row>
     <row r="71">
@@ -1730,7 +3122,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>52.13707195395033</v>
+        <v>-7.256420628509243</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-13.14062001799149</v>
       </c>
     </row>
     <row r="72">
@@ -1738,7 +3133,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>52.18810987535374</v>
+        <v>-14.39793561720624</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.124129067380176</v>
       </c>
     </row>
     <row r="73">
@@ -1746,7 +3144,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>52.74974413092234</v>
+        <v>-14.16579173569826</v>
+      </c>
+      <c r="C73" t="n">
+        <v>14.28896994120465</v>
       </c>
     </row>
     <row r="74">
@@ -1754,7 +3155,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>52.74196844184653</v>
+        <v>-19.82615545194045</v>
+      </c>
+      <c r="C74" t="n">
+        <v>14.34609112413436</v>
       </c>
     </row>
     <row r="75">
@@ -1762,7 +3166,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>53.10920821295746</v>
+        <v>-19.7844012437299</v>
+      </c>
+      <c r="C75" t="n">
+        <v>30.65865910488895</v>
       </c>
     </row>
     <row r="76">
@@ -1770,7 +3177,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>53.11407091689478</v>
+        <v>-25.54126721286672</v>
+      </c>
+      <c r="C76" t="n">
+        <v>40.90837521822605</v>
       </c>
     </row>
     <row r="77">
@@ -1778,7 +3188,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>53.04285081053165</v>
+        <v>-25.56887752064226</v>
+      </c>
+      <c r="C77" t="n">
+        <v>40.72025615750091</v>
       </c>
     </row>
     <row r="78">
@@ -1786,7 +3199,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>53.08201802275828</v>
+        <v>-25.56887752064226</v>
+      </c>
+      <c r="C78" t="n">
+        <v>52.9266698702314</v>
       </c>
     </row>
     <row r="79">
@@ -1794,7 +3210,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>52.4361884927643</v>
+        <v>-30.4059336781107</v>
+      </c>
+      <c r="C79" t="n">
+        <v>62.80809180013311</v>
       </c>
     </row>
     <row r="80">
@@ -1802,7 +3221,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>52.4325537634979</v>
+        <v>-30.36856168024554</v>
+      </c>
+      <c r="C80" t="n">
+        <v>71.89649754877993</v>
       </c>
     </row>
     <row r="81">
@@ -1810,7 +3232,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>51.96081679820435</v>
+        <v>-34.48771112145596</v>
+      </c>
+      <c r="C81" t="n">
+        <v>72.14721303169293</v>
       </c>
     </row>
     <row r="82">
@@ -1818,7 +3243,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>52.0002642614397</v>
+        <v>-34.46276195777475</v>
+      </c>
+      <c r="C82" t="n">
+        <v>79.52672727241523</v>
       </c>
     </row>
     <row r="83">
@@ -1826,7 +3254,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>50.93267103032287</v>
+        <v>-37.2786438319055</v>
+      </c>
+      <c r="C83" t="n">
+        <v>84.92097127837127</v>
       </c>
     </row>
     <row r="84">
@@ -1834,7 +3265,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>50.9428336457221</v>
+        <v>-37.32203481445766</v>
+      </c>
+      <c r="C84" t="n">
+        <v>85.12733342502457</v>
       </c>
     </row>
     <row r="85">
@@ -1842,7 +3276,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>50.03895126501173</v>
+        <v>-37.67859710350137</v>
+      </c>
+      <c r="C85" t="n">
+        <v>89.8153986522121</v>
       </c>
     </row>
     <row r="86">
@@ -1850,7 +3287,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>50.04109601329369</v>
+        <v>-37.66929509268391</v>
+      </c>
+      <c r="C86" t="n">
+        <v>87.15669824164759</v>
       </c>
     </row>
     <row r="87">
@@ -1858,7 +3298,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>49.21491377220416</v>
+        <v>-38.84458906358704</v>
+      </c>
+      <c r="C87" t="n">
+        <v>87.08521571264778</v>
       </c>
     </row>
     <row r="88">
@@ -1866,7 +3309,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>49.19143342259422</v>
+        <v>-38.87148594294295</v>
+      </c>
+      <c r="C88" t="n">
+        <v>85.08537893593022</v>
       </c>
     </row>
     <row r="89">
@@ -1874,7 +3320,153 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>47.64989829825677</v>
+        <v>-40.70695799665119</v>
+      </c>
+      <c r="C89" t="n">
+        <v>84.6435804017629</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-40.60096942682294</v>
+      </c>
+      <c r="C90" t="n">
+        <v>84.64492858268791</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-42.01933033743904</v>
+      </c>
+      <c r="C91" t="n">
+        <v>84.73824618155763</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-41.90840377010678</v>
+      </c>
+      <c r="C92" t="n">
+        <v>85.06560925522247</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-42.18554451011555</v>
+      </c>
+      <c r="C93" t="n">
+        <v>86.32578939628252</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-42.23777804261049</v>
+      </c>
+      <c r="C94" t="n">
+        <v>86.46521594718745</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-43.64916102879507</v>
+      </c>
+      <c r="C95" t="n">
+        <v>88.21800142509341</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-43.58041533726161</v>
+      </c>
+      <c r="C96" t="n">
+        <v>88.4391122951223</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-42.97976049085185</v>
+      </c>
+      <c r="C97" t="n">
+        <v>88.61275373455651</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-43.21168015268228</v>
+      </c>
+      <c r="C98" t="n">
+        <v>89.1796897707837</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-42.74363630188452</v>
+      </c>
+      <c r="C99" t="n">
+        <v>89.57889072248251</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-42.57402939700055</v>
+      </c>
+      <c r="C100" t="n">
+        <v>89.61137135869114</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-43.49106906068603</v>
+      </c>
+      <c r="C101" t="n">
+        <v>88.78670409328183</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-43.49106906068603</v>
+      </c>
+      <c r="C102" t="n">
+        <v>88.78670409328183</v>
       </c>
     </row>
   </sheetData>
@@ -1882,13 +3474,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1899,7 +3491,42 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>stride_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>stride_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_A</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_AB_midpoint</t>
         </is>
       </c>
     </row>
@@ -1908,7 +3535,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89.8105488522437</v>
+        <v>-28.31322977184077</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-28.31322977184077</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-54.51341726477066</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-55.92692702014171</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-55.97752844053232</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-55.97752844053232</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47.64989829825677</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.27407423799555</v>
       </c>
     </row>
     <row r="3">
@@ -1916,813 +3564,1373 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>87.62679749963615</v>
-      </c>
+        <v>-41.66170269341665</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-55.98786750799241</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>86.7185147856884</v>
-      </c>
+        <v>-41.75371373352409</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-55.77590684050573</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>86.65792244725947</v>
-      </c>
+        <v>-51.61162079270974</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-55.73335614490745</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>86.64016145327702</v>
-      </c>
+        <v>-51.48660737382505</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-55.43145636921313</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>87.48324419486509</v>
-      </c>
+        <v>-55.8402612529085</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-55.43718328374239</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87.65346025906997</v>
-      </c>
+        <v>-55.92692702014171</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-54.54744748978932</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88.16276887727403</v>
-      </c>
+        <v>-56.73216404620807</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-54.50270381699778</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89.76343699041834</v>
-      </c>
+        <v>-56.76323326199837</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-53.5683787129645</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89.71260993248819</v>
-      </c>
+        <v>-55.97091196236958</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-53.55507385828216</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>87.86439461382051</v>
-      </c>
+        <v>-56.06111066000089</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-52.62945067667353</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>83.78192938506051</v>
-      </c>
+        <v>-56.00521103095497</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-52.62109463412564</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83.75525854285208</v>
-      </c>
+        <v>-56.08596346434405</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-51.09415204202878</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>79.78066260489052</v>
-      </c>
+        <v>-56.40857007005317</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-51.05645430490717</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>75.03306087017567</v>
-      </c>
+        <v>-56.38622408574508</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-48.65048687429478</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>69.93446705804772</v>
-      </c>
+        <v>-56.45126555072055</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-48.64264365750489</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>69.79936039887561</v>
-      </c>
+        <v>-56.482896565091</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-45.70603426419515</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>64.58373616677582</v>
-      </c>
+        <v>-55.68897851455907</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-45.74483430835046</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>58.62182806402645</v>
-      </c>
+        <v>-55.7540765625626</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-42.26440676853931</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>58.51865987127594</v>
-      </c>
+        <v>-54.50590216042935</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-42.21665712471682</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>53.16572577228606</v>
-      </c>
+        <v>-54.51341726477066</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-38.59750868631277</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>48.10015171299928</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-38.56858965485416</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>47.93361768786956</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>-35.01858757712635</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>43.07058951878711</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-34.87870297809698</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>38.518087485731</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-31.59661901665523</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>38.57272096651744</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-31.56204193012739</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>33.61655403395277</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-27.97703049436551</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>27.59339681734258</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-27.89996108527</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>27.55292570075649</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-24.0679048449413</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>21.86479116153674</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-23.99604828494301</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>14.12430667152481</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-21.05620926310888</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>14.14819543736574</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-20.94942336370391</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>8.072420518758591</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-17.4255327228725</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>1.852957577409919</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-17.38698538665386</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>-2.747813399872792</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-13.33630159131398</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>-2.720614005963318</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-13.30814200859339</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>-9.609264191996401</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-9.569907463444911</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>-14.84012679425605</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-9.50120902441534</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>-14.71143624361422</v>
-      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-5.068317430407355</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>-20.30575738518204</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-5.048051480280074</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>-26.11365097371097</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-0.3977686884311543</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>-26.11269591350248</v>
-      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>-0.3615228755001332</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>-30.99741254578433</v>
-      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>5.102191318258362</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>-33.44728657652752</v>
-      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>5.130276782442643</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>-33.6654261350763</v>
-      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>10.27407423799555</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>-36.32989176639575</v>
-      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>10.33081048390006</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>-38.83021351947358</v>
-      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>15.06854691698357</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>-38.76867557389423</v>
-      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>15.20962137215056</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>-41.24133362281399</v>
-      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>19.13759418159532</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>-43.67277729782838</v>
-      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>19.16620364384654</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>-43.70867465346216</v>
-      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>23.8211869934552</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>-44.66657125752133</v>
-      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>23.84876418372964</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>-44.3027296946963</v>
-      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>27.61796890510384</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>-45.19017541720564</v>
-      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>27.63957111981048</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>-45.19524118880615</v>
-      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>31.59772775899151</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>-46.20663741470341</v>
-      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>31.65976090605512</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>-46.28792100920415</v>
-      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>35.21450236878244</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>-46.39706046748723</v>
-      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>35.21808478401853</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>-46.81251677829129</v>
-      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>38.5695155141591</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>-45.20589412637088</v>
-      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>38.57159324318651</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>-45.1509137889643</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>40.74556348240453</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>-43.47014452860194</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>40.84709638145874</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>-42.36893420801394</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>43.19904782742664</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>-42.31593718753555</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>43.42632716701343</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>-38.3387902883329</v>
-      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>46.17602854222906</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>-32.79485648494229</v>
-      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>46.15872622915466</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>-32.7245372518595</v>
-      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>48.81729715941928</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>-25.34845668125872</v>
-      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>48.82527303788803</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>-13.14326028977431</v>
-      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>50.72483519702093</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>-1.112956994204414</v>
-      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>50.74719953270971</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>-1.124129067380176</v>
-      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>52.13707195395033</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>14.28896994120465</v>
-      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>52.18810987535374</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>30.72847804070634</v>
-      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>52.74974413092234</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>30.65865910488895</v>
-      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>52.74196844184653</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>40.90837521822605</v>
-      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>53.10920821295746</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>53.03174327523759</v>
-      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>53.11407091689478</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>52.9266698702314</v>
-      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>53.04285081053165</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>62.80809180013311</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>53.08201802275828</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>71.89649754877993</v>
-      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>52.4361884927643</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>72.14721303169293</v>
-      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>52.4325537634979</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>79.52851223806388</v>
-      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>51.96081679820435</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>84.92097127837127</v>
-      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>52.0002642614397</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>85.12733342502457</v>
-      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>50.93267103032287</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>89.8153986522121</v>
-      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>50.9428336457221</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>87.15669824164759</v>
-      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>50.03895126501173</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>87.08521571264778</v>
-      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>50.04109601329369</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>85.08537893593022</v>
-      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>49.21491377220416</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>84.6435804017629</v>
-      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>49.19143342259422</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>84.71119266520969</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>84.73824618155763</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>85.06560925522247</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>86.32578939628252</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>86.46521594718745</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>88.21800142509341</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>88.4391122951223</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>88.61275373455651</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>89.16210881649108</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>89.57889072248251</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>89.61137135869114</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>88.78670409328183</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>88.78670409328183</v>
-      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>47.64989829825677</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2733,6 +4941,11 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>stride_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>stride_2</t>
         </is>
       </c>
@@ -2742,7 +4955,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-55.98786750799241</v>
+        <v>-28.31322977184077</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-55.97752844053232</v>
       </c>
     </row>
     <row r="3">
@@ -2750,7 +4966,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-55.77590684050573</v>
+        <v>-41.66170269341665</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-55.98786750799241</v>
       </c>
     </row>
     <row r="4">
@@ -2758,7 +4977,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-55.43145636921313</v>
+        <v>-41.75371373352409</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-55.73335614490745</v>
       </c>
     </row>
     <row r="5">
@@ -2766,7 +4988,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-55.43718328374239</v>
+        <v>-51.61162079270974</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-55.43145636921313</v>
       </c>
     </row>
     <row r="6">
@@ -2774,6 +4999,9 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>-51.48660737382505</v>
+      </c>
+      <c r="C6" t="n">
         <v>-54.54744748978932</v>
       </c>
     </row>
@@ -2782,7 +5010,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-53.5683787129645</v>
+        <v>-55.8402612529085</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-54.50270381699778</v>
       </c>
     </row>
     <row r="8">
@@ -2790,7 +5021,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-53.55507385828216</v>
+        <v>-55.92692702014171</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-53.5683787129645</v>
       </c>
     </row>
     <row r="9">
@@ -2798,7 +5032,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-52.62109463412564</v>
+        <v>-56.73216404620807</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-52.62945067667353</v>
       </c>
     </row>
     <row r="10">
@@ -2806,7 +5043,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-51.09415204202878</v>
+        <v>-56.76323326199837</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-52.62109463412564</v>
       </c>
     </row>
     <row r="11">
@@ -2814,7 +5054,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-51.05645430490717</v>
+        <v>-55.97091196236958</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-51.09415204202878</v>
       </c>
     </row>
     <row r="12">
@@ -2822,7 +5065,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-48.64264365750489</v>
+        <v>-56.06111066000089</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-48.65048687429478</v>
       </c>
     </row>
     <row r="13">
@@ -2830,7 +5076,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-45.70603426419515</v>
+        <v>-56.00521103095497</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-48.64264365750489</v>
       </c>
     </row>
     <row r="14">
@@ -2838,6 +5087,9 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>-56.08596346434405</v>
+      </c>
+      <c r="C14" t="n">
         <v>-45.74483430835046</v>
       </c>
     </row>
@@ -2846,7 +5098,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-42.21665712471682</v>
+        <v>-56.40857007005317</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-42.26440676853931</v>
       </c>
     </row>
     <row r="16">
@@ -2854,7 +5109,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-38.59750868631277</v>
+        <v>-56.38622408574508</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-42.21665712471682</v>
       </c>
     </row>
     <row r="17">
@@ -2862,7 +5120,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-35.01858757712635</v>
+        <v>-56.45126555072055</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-38.56858965485416</v>
       </c>
     </row>
     <row r="18">
@@ -2870,7 +5131,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-34.87870297809698</v>
+        <v>-56.482896565091</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-35.01858757712635</v>
       </c>
     </row>
     <row r="19">
@@ -2878,7 +5142,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-31.59661901665523</v>
+        <v>-55.68897851455907</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-34.87870297809698</v>
       </c>
     </row>
     <row r="20">
@@ -2886,7 +5153,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-27.97703049436551</v>
+        <v>-55.7540765625626</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-31.56204193012739</v>
       </c>
     </row>
     <row r="21">
@@ -2894,7 +5164,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-27.89996108527</v>
+        <v>-54.50590216042935</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-27.97703049436551</v>
       </c>
     </row>
     <row r="22">
@@ -2902,6 +5175,9 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>-54.51341726477066</v>
+      </c>
+      <c r="C22" t="n">
         <v>-24.0679048449413</v>
       </c>
     </row>
@@ -2910,7 +5186,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-21.05620926310888</v>
+        <v>-53.28074817309373</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-23.99604828494301</v>
       </c>
     </row>
     <row r="24">
@@ -2918,7 +5197,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-20.94942336370391</v>
+        <v>-53.28145074494277</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-21.05620926310888</v>
       </c>
     </row>
     <row r="25">
@@ -2926,7 +5208,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-17.38698538665386</v>
+        <v>-53.20594998049041</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-17.4255327228725</v>
       </c>
     </row>
     <row r="26">
@@ -2934,7 +5219,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-13.33630159131398</v>
+        <v>-53.19246120146973</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-17.38698538665386</v>
       </c>
     </row>
     <row r="27">
@@ -2942,7 +5230,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-13.30814200859339</v>
+        <v>-53.19246120146973</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-13.33630159131398</v>
       </c>
     </row>
     <row r="28">
@@ -2950,7 +5241,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-9.50120902441534</v>
+        <v>-53.57979872743506</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-9.569907463444911</v>
       </c>
     </row>
     <row r="29">
@@ -2958,7 +5252,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.068317430407355</v>
+        <v>-53.53247685970138</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-9.50120902441534</v>
       </c>
     </row>
     <row r="30">
@@ -2966,6 +5263,9 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>-52.8148252455333</v>
+      </c>
+      <c r="C30" t="n">
         <v>-5.048051480280074</v>
       </c>
     </row>
@@ -2974,7 +5274,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.3615228755001332</v>
+        <v>-52.74165106958079</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.3977686884311543</v>
       </c>
     </row>
     <row r="32">
@@ -2982,7 +5285,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.102191318258362</v>
+        <v>-51.60159065681618</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.3615228755001332</v>
       </c>
     </row>
     <row r="33">
@@ -2990,6 +5296,9 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>-51.56360667630505</v>
+      </c>
+      <c r="C33" t="n">
         <v>5.130276782442643</v>
       </c>
     </row>
@@ -2998,7 +5307,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.33081048390006</v>
+        <v>-50.00353610637971</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10.27407423799555</v>
       </c>
     </row>
     <row r="35">
@@ -3006,6 +5318,9 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>-49.96496171419834</v>
+      </c>
+      <c r="C35" t="n">
         <v>15.06854691698357</v>
       </c>
     </row>
@@ -3014,7 +5329,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19.13759418159532</v>
+        <v>-48.41054010250846</v>
+      </c>
+      <c r="C36" t="n">
+        <v>15.20962137215056</v>
       </c>
     </row>
     <row r="37">
@@ -3022,7 +5340,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19.16620364384654</v>
+        <v>-48.37085599539449</v>
+      </c>
+      <c r="C37" t="n">
+        <v>19.13759418159532</v>
       </c>
     </row>
     <row r="38">
@@ -3030,6 +5351,9 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>-46.20218250678372</v>
+      </c>
+      <c r="C38" t="n">
         <v>23.8211869934552</v>
       </c>
     </row>
@@ -3038,7 +5362,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.61796890510384</v>
+        <v>-46.13691258143992</v>
+      </c>
+      <c r="C39" t="n">
+        <v>23.84876418372964</v>
       </c>
     </row>
     <row r="40">
@@ -3046,7 +5373,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.63957111981048</v>
+        <v>-44.52579995294082</v>
+      </c>
+      <c r="C40" t="n">
+        <v>27.61796890510384</v>
       </c>
     </row>
     <row r="41">
@@ -3054,6 +5384,9 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>-44.55632833528308</v>
+      </c>
+      <c r="C41" t="n">
         <v>31.59772775899151</v>
       </c>
     </row>
@@ -3062,7 +5395,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>35.21450236878244</v>
+        <v>-42.85056974068014</v>
+      </c>
+      <c r="C42" t="n">
+        <v>31.65976090605512</v>
       </c>
     </row>
     <row r="43">
@@ -3070,6 +5406,9 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>-42.7195555449787</v>
+      </c>
+      <c r="C43" t="n">
         <v>35.21808478401853</v>
       </c>
     </row>
@@ -3078,7 +5417,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>38.57159324318651</v>
+        <v>-40.92377146264423</v>
+      </c>
+      <c r="C44" t="n">
+        <v>38.5695155141591</v>
       </c>
     </row>
     <row r="45">
@@ -3086,7 +5428,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40.74556348240453</v>
+        <v>-40.86400225727389</v>
+      </c>
+      <c r="C45" t="n">
+        <v>38.57159324318651</v>
       </c>
     </row>
     <row r="46">
@@ -3094,6 +5439,9 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>-38.82652826196448</v>
+      </c>
+      <c r="C46" t="n">
         <v>40.84709638145874</v>
       </c>
     </row>
@@ -3102,7 +5450,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>43.42632716701343</v>
+        <v>-38.75919361719559</v>
+      </c>
+      <c r="C47" t="n">
+        <v>43.19904782742664</v>
       </c>
     </row>
     <row r="48">
@@ -3110,7 +5461,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>46.17602854222906</v>
+        <v>-36.09886974735272</v>
+      </c>
+      <c r="C48" t="n">
+        <v>43.42632716701343</v>
       </c>
     </row>
     <row r="49">
@@ -3118,6 +5472,9 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>-36.06623853720383</v>
+      </c>
+      <c r="C49" t="n">
         <v>46.15872622915466</v>
       </c>
     </row>
@@ -3126,7 +5483,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>48.82527303788803</v>
+        <v>-33.14732909898702</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48.81729715941928</v>
       </c>
     </row>
     <row r="51">
@@ -3134,6 +5494,9 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>-33.0764899667879</v>
+      </c>
+      <c r="C51" t="n">
         <v>50.72483519702093</v>
       </c>
     </row>
@@ -3142,6 +5505,9 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>-29.34950595194259</v>
+      </c>
+      <c r="C52" t="n">
         <v>50.74719953270971</v>
       </c>
     </row>
@@ -3150,7 +5516,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>52.18810987535374</v>
+        <v>-29.25830669009601</v>
+      </c>
+      <c r="C53" t="n">
+        <v>52.13707195395033</v>
       </c>
     </row>
     <row r="54">
@@ -3158,6 +5527,9 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>-25.62013007873023</v>
+      </c>
+      <c r="C54" t="n">
         <v>52.74974413092234</v>
       </c>
     </row>
@@ -3166,7 +5538,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>53.10920821295746</v>
+        <v>-25.47555447254731</v>
+      </c>
+      <c r="C55" t="n">
+        <v>52.74196844184653</v>
       </c>
     </row>
     <row r="56">
@@ -3174,6 +5549,9 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>-21.08199245927007</v>
+      </c>
+      <c r="C56" t="n">
         <v>53.11407091689478</v>
       </c>
     </row>
@@ -3182,6 +5560,9 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>-21.0062981098074</v>
+      </c>
+      <c r="C57" t="n">
         <v>53.04285081053165</v>
       </c>
     </row>
@@ -3190,7 +5571,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>52.4361884927643</v>
+        <v>-16.66010364449475</v>
+      </c>
+      <c r="C58" t="n">
+        <v>53.08201802275828</v>
       </c>
     </row>
     <row r="59">
@@ -3198,6 +5582,9 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>-16.61915228679232</v>
+      </c>
+      <c r="C59" t="n">
         <v>52.4325537634979</v>
       </c>
     </row>
@@ -3206,6 +5593,9 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>-11.77963678733722</v>
+      </c>
+      <c r="C60" t="n">
         <v>51.96081679820435</v>
       </c>
     </row>
@@ -3214,7 +5604,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>50.93267103032287</v>
+        <v>-11.69116796270793</v>
+      </c>
+      <c r="C61" t="n">
+        <v>52.0002642614397</v>
       </c>
     </row>
     <row r="62">
@@ -3222,6 +5615,9 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>-7.142158519488238</v>
+      </c>
+      <c r="C62" t="n">
         <v>50.9428336457221</v>
       </c>
     </row>
@@ -3230,7 +5626,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>50.04109601329369</v>
+        <v>-7.083400913735564</v>
+      </c>
+      <c r="C63" t="n">
+        <v>50.03895126501173</v>
       </c>
     </row>
     <row r="64">
@@ -3238,6 +5637,9 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>-2.024164487690216</v>
+      </c>
+      <c r="C64" t="n">
         <v>49.21491377220416</v>
       </c>
     </row>
@@ -3246,6 +5648,9 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>-2.013558766641676</v>
+      </c>
+      <c r="C65" t="n">
         <v>49.19143342259422</v>
       </c>
     </row>
@@ -3254,7 +5659,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>47.61326950586046</v>
+        <v>3.66537958708</v>
+      </c>
+      <c r="C66" t="n">
+        <v>47.64989829825677</v>
       </c>
     </row>
     <row r="67">
@@ -3262,6 +5670,9 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>3.68883793283111</v>
+      </c>
+      <c r="C67" t="n">
         <v>45.87615032915294</v>
       </c>
     </row>
@@ -3270,6 +5681,9 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>9.035982996871432</v>
+      </c>
+      <c r="C68" t="n">
         <v>45.90079681230461</v>
       </c>
     </row>
@@ -3278,7 +5692,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>43.34691595335951</v>
+        <v>9.035269811729085</v>
+      </c>
+      <c r="C69" t="n">
+        <v>43.37919726217904</v>
       </c>
     </row>
     <row r="70">
@@ -3286,6 +5703,9 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>13.8782717807508</v>
+      </c>
+      <c r="C70" t="n">
         <v>40.35099240312179</v>
       </c>
     </row>
@@ -3294,7 +5714,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>35.68709592356802</v>
+        <v>13.89008674901492</v>
+      </c>
+      <c r="C71" t="n">
+        <v>40.3329228681941</v>
       </c>
     </row>
     <row r="72">
@@ -3302,6 +5725,9 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>19.2981633582908</v>
+      </c>
+      <c r="C72" t="n">
         <v>35.64824165302785</v>
       </c>
     </row>
@@ -3310,6 +5736,9 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>19.31705148953299</v>
+      </c>
+      <c r="C73" t="n">
         <v>29.51615041780878</v>
       </c>
     </row>
@@ -3318,7 +5747,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21.23301654045263</v>
+        <v>23.98870510767875</v>
+      </c>
+      <c r="C74" t="n">
+        <v>29.5313103190952</v>
       </c>
     </row>
     <row r="75">
@@ -3326,6 +5758,9 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>24.01942970068304</v>
+      </c>
+      <c r="C75" t="n">
         <v>21.27141335224559</v>
       </c>
     </row>
@@ -3334,6 +5769,9 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>28.514979465827</v>
+      </c>
+      <c r="C76" t="n">
         <v>11.2637396314365</v>
       </c>
     </row>
@@ -3342,7 +5780,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.995309240159389</v>
+        <v>28.55323741466194</v>
+      </c>
+      <c r="C77" t="n">
+        <v>11.3537553393628</v>
       </c>
     </row>
     <row r="78">
@@ -3350,6 +5791,9 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>28.55323741466194</v>
+      </c>
+      <c r="C78" t="n">
         <v>3.003525746707167</v>
       </c>
     </row>
@@ -3358,6 +5802,9 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>33.32242379203699</v>
+      </c>
+      <c r="C79" t="n">
         <v>-6.967830727673565</v>
       </c>
     </row>
@@ -3366,6 +5813,9 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>33.31835910944546</v>
+      </c>
+      <c r="C80" t="n">
         <v>-16.82239717044811</v>
       </c>
     </row>
@@ -3374,6 +5824,9 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>36.63986585188702</v>
+      </c>
+      <c r="C81" t="n">
         <v>-16.90103619954954</v>
       </c>
     </row>
@@ -3382,7 +5835,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-25.13929956297111</v>
+        <v>36.62953789626201</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-25.1860376613229</v>
       </c>
     </row>
     <row r="83">
@@ -3390,6 +5846,9 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>39.26622526562301</v>
+      </c>
+      <c r="C83" t="n">
         <v>-33.42510032058563</v>
       </c>
     </row>
@@ -3398,6 +5857,9 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>39.27511081204204</v>
+      </c>
+      <c r="C84" t="n">
         <v>-33.46380993003767</v>
       </c>
     </row>
@@ -3406,6 +5868,9 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>40.57321121819955</v>
+      </c>
+      <c r="C85" t="n">
         <v>-40.06649854602662</v>
       </c>
     </row>
@@ -3414,6 +5879,9 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>40.58720212747939</v>
+      </c>
+      <c r="C86" t="n">
         <v>-46.11636913404682</v>
       </c>
     </row>
@@ -3422,6 +5890,9 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>42.42133116554796</v>
+      </c>
+      <c r="C87" t="n">
         <v>-46.14518698415377</v>
       </c>
     </row>
@@ -3430,6 +5901,9 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>42.43861364417719</v>
+      </c>
+      <c r="C88" t="n">
         <v>-50.26543158472276</v>
       </c>
     </row>
@@ -3438,6 +5912,9 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>45.13651694861699</v>
+      </c>
+      <c r="C89" t="n">
         <v>-54.21222175325291</v>
       </c>
     </row>
@@ -3446,7 +5923,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-56.33553051321649</v>
+        <v>45.18556112250093</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-54.2197847764982</v>
       </c>
     </row>
     <row r="91">
@@ -3454,6 +5934,9 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>47.7057080911506</v>
+      </c>
+      <c r="C91" t="n">
         <v>-56.32845610327567</v>
       </c>
     </row>
@@ -3462,6 +5945,9 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>47.71682112946959</v>
+      </c>
+      <c r="C92" t="n">
         <v>-58.56992523375713</v>
       </c>
     </row>
@@ -3470,6 +5956,9 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>49.73420592835942</v>
+      </c>
+      <c r="C93" t="n">
         <v>-59.95415673553144</v>
       </c>
     </row>
@@ -3478,6 +5967,9 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>49.76083509363379</v>
+      </c>
+      <c r="C94" t="n">
         <v>-59.94348262895519</v>
       </c>
     </row>
@@ -3486,6 +5978,9 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>51.54703702266629</v>
+      </c>
+      <c r="C95" t="n">
         <v>-60.9529708862292</v>
       </c>
     </row>
@@ -3494,6 +5989,9 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>51.56355185215704</v>
+      </c>
+      <c r="C96" t="n">
         <v>-61.7915473033162</v>
       </c>
     </row>
@@ -3502,6 +6000,9 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>51.80170191398193</v>
+      </c>
+      <c r="C97" t="n">
         <v>-61.76974012257458</v>
       </c>
     </row>
@@ -3510,7 +6011,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-62.50842167753692</v>
+        <v>51.91379689925409</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-62.5321695763838</v>
       </c>
     </row>
     <row r="99">
@@ -3518,6 +6022,9 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>52.3370285688338</v>
+      </c>
+      <c r="C99" t="n">
         <v>-63.39558267401957</v>
       </c>
     </row>
@@ -3526,6 +6033,9 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>52.226255449663</v>
+      </c>
+      <c r="C100" t="n">
         <v>-63.40216671597663</v>
       </c>
     </row>
@@ -3534,6 +6044,9 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>52.01614140942366</v>
+      </c>
+      <c r="C101" t="n">
         <v>-63.89467755915062</v>
       </c>
     </row>
@@ -3542,6 +6055,9 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>52.01614140942366</v>
+      </c>
+      <c r="C102" t="n">
         <v>-63.89467755915062</v>
       </c>
     </row>
